--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE448492-1349-4872-9332-6E99B52AB250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4824B-66E2-4884-8D65-4688D453A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Login_invalidCredetials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -55,6 +56,12 @@
   </si>
   <si>
     <t>invalid password</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
   </si>
 </sst>
 </file>
@@ -385,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +450,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC5D30E-88FC-48C3-B079-1B678C5E96B0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4824B-66E2-4884-8D65-4688D453A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB96422-BF96-4EEC-814A-5E43A023B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Login_invalidCredetials" sheetId="2" r:id="rId2"/>
+    <sheet name="AccountPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -62,6 +63,117 @@
   </si>
   <si>
     <t>admin2</t>
+  </si>
+  <si>
+    <t>Aju Mathew</t>
+  </si>
+  <si>
+    <t>homepage useraccount name</t>
+  </si>
+  <si>
+    <t>homepage title</t>
+  </si>
+  <si>
+    <t>Home - Llolll</t>
+  </si>
+  <si>
+    <t>usermanagementdatatitle</t>
+  </si>
+  <si>
+    <t>Users - Llolll</t>
+  </si>
+  <si>
+    <t>Add user - Llolll</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Tinu</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Tinuwilson7654@gmail.com</t>
+  </si>
+  <si>
+    <t>Noa</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>Richard Pop</t>
+  </si>
+  <si>
+    <t>Edit user - Llolll</t>
+  </si>
+  <si>
+    <t>View User - Llolll</t>
+  </si>
+  <si>
+    <t>Roles - Llolll</t>
+  </si>
+  <si>
+    <t>Add Role - Llolll</t>
+  </si>
+  <si>
+    <t>IamTheRoleName</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents - Llolll</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Lucco</t>
+  </si>
+  <si>
+    <t>Sea Shore, Deep Street, London</t>
+  </si>
+  <si>
+    <t>mr Richard  PopTT</t>
+  </si>
+  <si>
+    <t>User updated successfully</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>RoleNames</t>
+  </si>
+  <si>
+    <t>Role updated successfully</t>
+  </si>
+  <si>
+    <t>Role deleted successfully</t>
+  </si>
+  <si>
+    <t>Commission agent updated successfully</t>
+  </si>
+  <si>
+    <t>Commission agent deleted successfully</t>
+  </si>
+  <si>
+    <t>Commission agent added successfully</t>
+  </si>
+  <si>
+    <t>Edit Role - Llolll</t>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
+  </si>
+  <si>
+    <t>User added successfully</t>
   </si>
 </sst>
 </file>
@@ -93,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,13 +213,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -393,7 +522,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,42 +534,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>4444</v>
       </c>
     </row>
@@ -456,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC5D30E-88FC-48C3-B079-1B678C5E96B0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -497,4 +626,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B3BF2B-929C-45BE-BEEB-E67CF1CCFFEC}">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>765432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>654321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>654321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9876554433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{21EE0C7C-C874-4112-B179-B826A9CF048A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB96422-BF96-4EEC-814A-5E43A023B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57F5FC-B406-47A7-9C91-ED5F671A2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>User added successfully</t>
+  </si>
+  <si>
+    <t>Tinu Wilson</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B3BF2B-929C-45BE-BEEB-E67CF1CCFFEC}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,6 +864,16 @@
         <v>48</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>122948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" xr:uid="{21EE0C7C-C874-4112-B179-B826A9CF048A}"/>
